--- a/natmiOut/OldD2/LR-pairs_lrc2p/Col3a1-Mag.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Col3a1-Mag.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.5492112728621</v>
+        <v>20.5550805</v>
       </c>
       <c r="H2">
-        <v>20.5492112728621</v>
+        <v>41.11016100000001</v>
       </c>
       <c r="I2">
-        <v>0.01811042390666086</v>
+        <v>0.01692986717097462</v>
       </c>
       <c r="J2">
-        <v>0.01811042390666086</v>
+        <v>0.01176776206024777</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.6240420749464261</v>
+        <v>0.27644</v>
       </c>
       <c r="N2">
-        <v>0.6240420749464261</v>
+        <v>0.8293199999999999</v>
       </c>
       <c r="O2">
-        <v>0.5460825143077291</v>
+        <v>0.1940440920813295</v>
       </c>
       <c r="P2">
-        <v>0.5460825143077291</v>
+        <v>0.2208748168298663</v>
       </c>
       <c r="Q2">
-        <v>12.82357244122935</v>
+        <v>5.68224645342</v>
       </c>
       <c r="R2">
-        <v>12.82357244122935</v>
+        <v>34.09347872052</v>
       </c>
       <c r="S2">
-        <v>0.009889785822128168</v>
+        <v>0.003285140704249277</v>
       </c>
       <c r="T2">
-        <v>0.009889785822128168</v>
+        <v>0.002599202289554676</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.5492112728621</v>
+        <v>20.5550805</v>
       </c>
       <c r="H3">
-        <v>20.5492112728621</v>
+        <v>41.11016100000001</v>
       </c>
       <c r="I3">
-        <v>0.01811042390666086</v>
+        <v>0.01692986717097462</v>
       </c>
       <c r="J3">
-        <v>0.01811042390666086</v>
+        <v>0.01176776206024777</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.518719428299153</v>
+        <v>0.6290166666666667</v>
       </c>
       <c r="N3">
-        <v>0.518719428299153</v>
+        <v>1.88705</v>
       </c>
       <c r="O3">
-        <v>0.4539174856922708</v>
+        <v>0.4415315004607062</v>
       </c>
       <c r="P3">
-        <v>0.4539174856922708</v>
+        <v>0.502582625643659</v>
       </c>
       <c r="Q3">
-        <v>10.65927512345754</v>
+        <v>12.929488219175</v>
       </c>
       <c r="R3">
-        <v>10.65927512345754</v>
+        <v>77.57692931505001</v>
       </c>
       <c r="S3">
-        <v>0.008220638084532689</v>
+        <v>0.007475069654600877</v>
       </c>
       <c r="T3">
-        <v>0.008220638084532689</v>
+        <v>0.005914272754189158</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>985.411543362938</v>
+        <v>20.5550805</v>
       </c>
       <c r="H4">
-        <v>985.411543362938</v>
+        <v>41.11016100000001</v>
       </c>
       <c r="I4">
-        <v>0.8684625670469396</v>
+        <v>0.01692986717097462</v>
       </c>
       <c r="J4">
-        <v>0.8684625670469396</v>
+        <v>0.01176776206024777</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6240420749464261</v>
+        <v>0.5191680000000001</v>
       </c>
       <c r="N4">
-        <v>0.6240420749464261</v>
+        <v>1.038336</v>
       </c>
       <c r="O4">
-        <v>0.5460825143077291</v>
+        <v>0.3644244074579644</v>
       </c>
       <c r="P4">
-        <v>0.5460825143077291</v>
+        <v>0.2765425575264748</v>
       </c>
       <c r="Q4">
-        <v>614.9382641963679</v>
+        <v>10.671540033024</v>
       </c>
       <c r="R4">
-        <v>614.9382641963679</v>
+        <v>42.68616013209601</v>
       </c>
       <c r="S4">
-        <v>0.4742522221951376</v>
+        <v>0.006169656812124473</v>
       </c>
       <c r="T4">
-        <v>0.4742522221951376</v>
+        <v>0.003254287016503937</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>985.411543362938</v>
+        <v>1042.616902666667</v>
       </c>
       <c r="H5">
-        <v>985.411543362938</v>
+        <v>3127.850708</v>
       </c>
       <c r="I5">
-        <v>0.8684625670469396</v>
+        <v>0.8587349328240113</v>
       </c>
       <c r="J5">
-        <v>0.8684625670469396</v>
+        <v>0.8953456273674414</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.518719428299153</v>
+        <v>0.27644</v>
       </c>
       <c r="N5">
-        <v>0.518719428299153</v>
+        <v>0.8293199999999999</v>
       </c>
       <c r="O5">
-        <v>0.4539174856922708</v>
+        <v>0.1940440920813295</v>
       </c>
       <c r="P5">
-        <v>0.4539174856922708</v>
+        <v>0.2208748168298663</v>
       </c>
       <c r="Q5">
-        <v>511.1521124126092</v>
+        <v>288.2210165731733</v>
       </c>
       <c r="R5">
-        <v>511.1521124126092</v>
+        <v>2593.98914915856</v>
       </c>
       <c r="S5">
-        <v>0.3942103448518019</v>
+        <v>0.1666324403783567</v>
       </c>
       <c r="T5">
-        <v>0.3942103448518019</v>
+        <v>0.1977593014442053</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -785,57 +785,57 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.443756546767467</v>
+        <v>1042.616902666667</v>
       </c>
       <c r="H6">
-        <v>0.443756546767467</v>
+        <v>3127.850708</v>
       </c>
       <c r="I6">
-        <v>0.0003910913692307111</v>
+        <v>0.8587349328240113</v>
       </c>
       <c r="J6">
-        <v>0.0003910913692307111</v>
+        <v>0.8953456273674414</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6240420749464261</v>
+        <v>0.6290166666666667</v>
       </c>
       <c r="N6">
-        <v>0.6240420749464261</v>
+        <v>1.88705</v>
       </c>
       <c r="O6">
-        <v>0.5460825143077291</v>
+        <v>0.4415315004607062</v>
       </c>
       <c r="P6">
-        <v>0.5460825143077291</v>
+        <v>0.502582625643659</v>
       </c>
       <c r="Q6">
-        <v>0.2769227562158308</v>
+        <v>655.8234087257111</v>
       </c>
       <c r="R6">
-        <v>0.2769227562158308</v>
+        <v>5902.410678531401</v>
       </c>
       <c r="S6">
-        <v>0.0002135681582335592</v>
+        <v>0.3791585233878094</v>
       </c>
       <c r="T6">
-        <v>0.0002135681582335592</v>
+        <v>0.4499851562608977</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,57 +847,57 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.443756546767467</v>
+        <v>1042.616902666667</v>
       </c>
       <c r="H7">
-        <v>0.443756546767467</v>
+        <v>3127.850708</v>
       </c>
       <c r="I7">
-        <v>0.0003910913692307111</v>
+        <v>0.8587349328240113</v>
       </c>
       <c r="J7">
-        <v>0.0003910913692307111</v>
+        <v>0.8953456273674414</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.518719428299153</v>
+        <v>0.5191680000000001</v>
       </c>
       <c r="N7">
-        <v>0.518719428299153</v>
+        <v>1.038336</v>
       </c>
       <c r="O7">
-        <v>0.4539174856922708</v>
+        <v>0.3644244074579644</v>
       </c>
       <c r="P7">
-        <v>0.4539174856922708</v>
+        <v>0.2765425575264748</v>
       </c>
       <c r="Q7">
-        <v>0.2301851422432268</v>
+        <v>541.293332123648</v>
       </c>
       <c r="R7">
-        <v>0.2301851422432268</v>
+        <v>3247.759992741888</v>
       </c>
       <c r="S7">
-        <v>0.0001775232109971519</v>
+        <v>0.3129439690578452</v>
       </c>
       <c r="T7">
-        <v>0.0001775232109971519</v>
+        <v>0.2476011696623384</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,122 +906,122 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.20967780837969</v>
+        <v>0.8184900000000001</v>
       </c>
       <c r="H8">
-        <v>1.20967780837969</v>
+        <v>2.45547</v>
       </c>
       <c r="I8">
-        <v>0.001066112835638062</v>
+        <v>0.0006741363518751979</v>
       </c>
       <c r="J8">
-        <v>0.001066112835638062</v>
+        <v>0.0007028770017727877</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.6240420749464261</v>
+        <v>0.27644</v>
       </c>
       <c r="N8">
-        <v>0.6240420749464261</v>
+        <v>0.8293199999999999</v>
       </c>
       <c r="O8">
-        <v>0.5460825143077291</v>
+        <v>0.1940440920813295</v>
       </c>
       <c r="P8">
-        <v>0.5460825143077291</v>
+        <v>0.2208748168298663</v>
       </c>
       <c r="Q8">
-        <v>0.7548898495579069</v>
+        <v>0.2262633756</v>
       </c>
       <c r="R8">
-        <v>0.7548898495579069</v>
+        <v>2.0363703804</v>
       </c>
       <c r="S8">
-        <v>0.0005821855778209759</v>
+        <v>0.0001308121763386424</v>
       </c>
       <c r="T8">
-        <v>0.0005821855778209759</v>
+        <v>0.0001552478290204901</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.20967780837969</v>
+        <v>0.8184900000000001</v>
       </c>
       <c r="H9">
-        <v>1.20967780837969</v>
+        <v>2.45547</v>
       </c>
       <c r="I9">
-        <v>0.001066112835638062</v>
+        <v>0.0006741363518751979</v>
       </c>
       <c r="J9">
-        <v>0.001066112835638062</v>
+        <v>0.0007028770017727877</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.518719428299153</v>
+        <v>0.6290166666666667</v>
       </c>
       <c r="N9">
-        <v>0.518719428299153</v>
+        <v>1.88705</v>
       </c>
       <c r="O9">
-        <v>0.4539174856922708</v>
+        <v>0.4415315004607062</v>
       </c>
       <c r="P9">
-        <v>0.4539174856922708</v>
+        <v>0.502582625643659</v>
       </c>
       <c r="Q9">
-        <v>0.6274833811888851</v>
+        <v>0.5148438515</v>
       </c>
       <c r="R9">
-        <v>0.6274833811888851</v>
+        <v>4.6335946635</v>
       </c>
       <c r="S9">
-        <v>0.0004839272578170864</v>
+        <v>0.0002976524349585627</v>
       </c>
       <c r="T9">
-        <v>0.0004839272578170864</v>
+        <v>0.0003532537690555104</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.5796401248952</v>
+        <v>0.8184900000000001</v>
       </c>
       <c r="H10">
-        <v>17.5796401248952</v>
+        <v>2.45547</v>
       </c>
       <c r="I10">
-        <v>0.0154932824701088</v>
+        <v>0.0006741363518751979</v>
       </c>
       <c r="J10">
-        <v>0.0154932824701088</v>
+        <v>0.0007028770017727877</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6240420749464261</v>
+        <v>0.5191680000000001</v>
       </c>
       <c r="N10">
-        <v>0.6240420749464261</v>
+        <v>1.038336</v>
       </c>
       <c r="O10">
-        <v>0.5460825143077291</v>
+        <v>0.3644244074579644</v>
       </c>
       <c r="P10">
-        <v>0.5460825143077291</v>
+        <v>0.2765425575264748</v>
       </c>
       <c r="Q10">
-        <v>10.97043510035105</v>
+        <v>0.4249338163200001</v>
       </c>
       <c r="R10">
-        <v>10.97043510035105</v>
+        <v>2.54960289792</v>
       </c>
       <c r="S10">
-        <v>0.008460610646156878</v>
+        <v>0.0002456717405779928</v>
       </c>
       <c r="T10">
-        <v>0.008460610646156878</v>
+        <v>0.0001943754036967873</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.5796401248952</v>
+        <v>1.314656666666667</v>
       </c>
       <c r="H11">
-        <v>17.5796401248952</v>
+        <v>3.94397</v>
       </c>
       <c r="I11">
-        <v>0.0154932824701088</v>
+        <v>0.001082796184724401</v>
       </c>
       <c r="J11">
-        <v>0.0154932824701088</v>
+        <v>0.001128959347368048</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.518719428299153</v>
+        <v>0.27644</v>
       </c>
       <c r="N11">
-        <v>0.518719428299153</v>
+        <v>0.8293199999999999</v>
       </c>
       <c r="O11">
-        <v>0.4539174856922708</v>
+        <v>0.1940440920813295</v>
       </c>
       <c r="P11">
-        <v>0.4539174856922708</v>
+        <v>0.2208748168298663</v>
       </c>
       <c r="Q11">
-        <v>9.118900875290487</v>
+        <v>0.3634236889333333</v>
       </c>
       <c r="R11">
-        <v>9.118900875290487</v>
+        <v>3.2708132004</v>
       </c>
       <c r="S11">
-        <v>0.007032671823951921</v>
+        <v>0.0002101102025739739</v>
       </c>
       <c r="T11">
-        <v>0.007032671823951921</v>
+        <v>0.0002493586890582831</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>109.468251615701</v>
+        <v>1.314656666666667</v>
       </c>
       <c r="H12">
-        <v>109.468251615701</v>
+        <v>3.94397</v>
       </c>
       <c r="I12">
-        <v>0.09647652237142201</v>
+        <v>0.001082796184724401</v>
       </c>
       <c r="J12">
-        <v>0.09647652237142201</v>
+        <v>0.001128959347368048</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6240420749464261</v>
+        <v>0.6290166666666667</v>
       </c>
       <c r="N12">
-        <v>0.6240420749464261</v>
+        <v>1.88705</v>
       </c>
       <c r="O12">
-        <v>0.5460825143077291</v>
+        <v>0.4415315004607062</v>
       </c>
       <c r="P12">
-        <v>0.5460825143077291</v>
+        <v>0.502582625643659</v>
       </c>
       <c r="Q12">
-        <v>68.31279487901951</v>
+        <v>0.8269409542777779</v>
       </c>
       <c r="R12">
-        <v>68.31279487901951</v>
+        <v>7.442468588500001</v>
       </c>
       <c r="S12">
-        <v>0.05268414190825201</v>
+        <v>0.0004780886241344927</v>
       </c>
       <c r="T12">
-        <v>0.05268414190825201</v>
+        <v>0.0005673953530451854</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,52 +1219,424 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>109.468251615701</v>
+        <v>1.314656666666667</v>
       </c>
       <c r="H13">
-        <v>109.468251615701</v>
+        <v>3.94397</v>
       </c>
       <c r="I13">
-        <v>0.09647652237142201</v>
+        <v>0.001082796184724401</v>
       </c>
       <c r="J13">
-        <v>0.09647652237142201</v>
+        <v>0.001128959347368048</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.518719428299153</v>
+        <v>0.5191680000000001</v>
       </c>
       <c r="N13">
-        <v>0.518719428299153</v>
+        <v>1.038336</v>
       </c>
       <c r="O13">
-        <v>0.4539174856922708</v>
+        <v>0.3644244074579644</v>
       </c>
       <c r="P13">
-        <v>0.4539174856922708</v>
+        <v>0.2765425575264748</v>
       </c>
       <c r="Q13">
-        <v>56.78330889500425</v>
+        <v>0.6825276723200002</v>
       </c>
       <c r="R13">
-        <v>56.78330889500425</v>
+        <v>4.095166033920001</v>
       </c>
       <c r="S13">
-        <v>0.04379238046316999</v>
+        <v>0.0003945973580159344</v>
       </c>
       <c r="T13">
-        <v>0.04379238046316999</v>
+        <v>0.00031220530526458</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>20.443657</v>
+      </c>
+      <c r="H14">
+        <v>61.330971</v>
+      </c>
+      <c r="I14">
+        <v>0.01683809496630118</v>
+      </c>
+      <c r="J14">
+        <v>0.01755595833477656</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.27644</v>
+      </c>
+      <c r="N14">
+        <v>0.8293199999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.1940440920813295</v>
+      </c>
+      <c r="P14">
+        <v>0.2208748168298663</v>
+      </c>
+      <c r="Q14">
+        <v>5.651444541079999</v>
+      </c>
+      <c r="R14">
+        <v>50.86300086972</v>
+      </c>
+      <c r="S14">
+        <v>0.003267332850115116</v>
+      </c>
+      <c r="T14">
+        <v>0.003877669081466536</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>20.443657</v>
+      </c>
+      <c r="H15">
+        <v>61.330971</v>
+      </c>
+      <c r="I15">
+        <v>0.01683809496630118</v>
+      </c>
+      <c r="J15">
+        <v>0.01755595833477656</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.6290166666666667</v>
+      </c>
+      <c r="N15">
+        <v>1.88705</v>
+      </c>
+      <c r="O15">
+        <v>0.4415315004607062</v>
+      </c>
+      <c r="P15">
+        <v>0.502582625643659</v>
+      </c>
+      <c r="Q15">
+        <v>12.85940098061667</v>
+      </c>
+      <c r="R15">
+        <v>115.73460882555</v>
+      </c>
+      <c r="S15">
+        <v>0.007434549335370823</v>
+      </c>
+      <c r="T15">
+        <v>0.008823319635582682</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>20.443657</v>
+      </c>
+      <c r="H16">
+        <v>61.330971</v>
+      </c>
+      <c r="I16">
+        <v>0.01683809496630118</v>
+      </c>
+      <c r="J16">
+        <v>0.01755595833477656</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.5191680000000001</v>
+      </c>
+      <c r="N16">
+        <v>1.038336</v>
+      </c>
+      <c r="O16">
+        <v>0.3644244074579644</v>
+      </c>
+      <c r="P16">
+        <v>0.2765425575264748</v>
+      </c>
+      <c r="Q16">
+        <v>10.613692517376</v>
+      </c>
+      <c r="R16">
+        <v>63.682155104256</v>
+      </c>
+      <c r="S16">
+        <v>0.006136212780815241</v>
+      </c>
+      <c r="T16">
+        <v>0.004854969617727341</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>128.382446</v>
+      </c>
+      <c r="H17">
+        <v>256.764892</v>
+      </c>
+      <c r="I17">
+        <v>0.1057401725021131</v>
+      </c>
+      <c r="J17">
+        <v>0.07349881588839352</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.27644</v>
+      </c>
+      <c r="N17">
+        <v>0.8293199999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.1940440920813295</v>
+      </c>
+      <c r="P17">
+        <v>0.2208748168298663</v>
+      </c>
+      <c r="Q17">
+        <v>35.49004337224</v>
+      </c>
+      <c r="R17">
+        <v>212.94026023344</v>
+      </c>
+      <c r="S17">
+        <v>0.02051825576969571</v>
+      </c>
+      <c r="T17">
+        <v>0.01623403749656099</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>128.382446</v>
+      </c>
+      <c r="H18">
+        <v>256.764892</v>
+      </c>
+      <c r="I18">
+        <v>0.1057401725021131</v>
+      </c>
+      <c r="J18">
+        <v>0.07349881588839352</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.6290166666666667</v>
+      </c>
+      <c r="N18">
+        <v>1.88705</v>
+      </c>
+      <c r="O18">
+        <v>0.4415315004607062</v>
+      </c>
+      <c r="P18">
+        <v>0.502582625643659</v>
+      </c>
+      <c r="Q18">
+        <v>80.75469824143333</v>
+      </c>
+      <c r="R18">
+        <v>484.5281894486</v>
+      </c>
+      <c r="S18">
+        <v>0.04668761702383192</v>
+      </c>
+      <c r="T18">
+        <v>0.03693922787088869</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>128.382446</v>
+      </c>
+      <c r="H19">
+        <v>256.764892</v>
+      </c>
+      <c r="I19">
+        <v>0.1057401725021131</v>
+      </c>
+      <c r="J19">
+        <v>0.07349881588839352</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.5191680000000001</v>
+      </c>
+      <c r="N19">
+        <v>1.038336</v>
+      </c>
+      <c r="O19">
+        <v>0.3644244074579644</v>
+      </c>
+      <c r="P19">
+        <v>0.2765425575264748</v>
+      </c>
+      <c r="Q19">
+        <v>66.652057724928</v>
+      </c>
+      <c r="R19">
+        <v>266.608230899712</v>
+      </c>
+      <c r="S19">
+        <v>0.03853429970858552</v>
+      </c>
+      <c r="T19">
+        <v>0.02032555052094385</v>
       </c>
     </row>
   </sheetData>
